--- a/outs/Cookbooks_out.xlsx
+++ b/outs/Cookbooks_out.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN14"/>
+  <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,254 +434,252 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>creator</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>creator</t>
+          <t>source</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>source</t>
+          <t>publisher</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>publisher</t>
+          <t>date</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>contributor</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>contributor</t>
+          <t>language</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>rights</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>rights</t>
+          <t>relation</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>relation</t>
+          <t>format</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>identifier</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>identifier</t>
+          <t>coverage</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>coverage</t>
+          <t>zotero_genre</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>zotero_genre</t>
+          <t>zotero_distributor</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>zotero_distributor</t>
+          <t>zotero_director</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>zotero_director</t>
+          <t>z_performer</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>z_performer</t>
+          <t>zotero_episode_number</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>zotero_episode_number</t>
+          <t>zotero_language</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>zotero_language</t>
+          <t>zotero_network</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>zotero_network</t>
+          <t>zotero_audio_recording_format</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>zotero_audio_recording_format</t>
+          <t>zotero_label</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>zotero_label</t>
+          <t>zotero_running_time</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>zotero_running_time</t>
+          <t>zotero_num_pages</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>zotero_num_pages</t>
+          <t>zotero_place</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>zotero_place</t>
+          <t>zotero_publisher</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>zotero_publisher</t>
+          <t>zotero_issn</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>zotero_issn</t>
+          <t>zotero_isbn</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>zotero_isbn</t>
+          <t>zotero_issue</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>zotero_issue</t>
+          <t>zotero_publication_title</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>zotero_publication_title</t>
+          <t>z_url</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>z_url</t>
+          <t>zotero_volume</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>zotero_volume</t>
+          <t>zotero_short_title</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>zotero_short_title</t>
+          <t>z_ref</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>z_ref</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>files</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>files</t>
+          <t>tags</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>collection</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>744</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Nos Histoires de l'Ile : livre de cuisine : A Collection of Recipes from French Island in Old Town, Maine</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nos Histoires de l'Ile : livre de cuisine : A Collection of Recipes from French Island in Old Town, Maine</t>
+          <t>A cookbook from the "Nos Histoires de l'Ile" group, with local and family recipes from the homes of French Island in Old Town, Maine. Compiled by the community group that provides us with the French Island history book of the same title.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A cookbook from the "Nos Histoires de l'Ile" group, with local and family recipes from the homes of French Island in Old Town, Maine. Compiled by the community group that provides us with the French Island history book of the same title.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>Nos Histoires de l'Ile</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Les Éditions FAROG</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="F2" t="n">
         <v>2005</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/40721859"&gt;40721859&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/40721859"&gt;40721859&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
           <t>Old Town, Maine</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
@@ -691,97 +689,94 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
+      <c r="Y2" t="n">
         <v>78</v>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Orono, Maine</t>
         </is>
       </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>http://www.old-town.me.us/nos/default.htm  Nos Histoires de l'Ile : livre de cuisine @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.old-town.me.us/nos/default.htm"&gt;http://www.old-town.me.us/nos/default.htm&lt;/a&gt; &lt;br/&gt;&lt;br/&gt; &lt;a href="http://books.google.com/books?id=ytVRGwAACAAJ&amp;amp;dq=nos+histoires+de+l%27ile:+livre+de+cuisine&amp;amp;hl=en&amp;amp;ei=o-bGTNOrEMH-8Aaq6o3sDw&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CCsQ6AEwAA"&gt;Nos Histoires de l'Ile : livre de cuisine @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/b8bac64f165b455c581e6c28c0b2ef3c.jpg</t>
+        </is>
+      </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/b8bac64f165b455c581e6c28c0b2ef3c.jpg</t>
+          <t>Food;French Island ME;Old Town ME</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
-        <is>
-          <t>Food;French Island ME;Old Town ME</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
         <is>
           <t>Cookbooks | Livres de cuisine</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>772</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>A French-Canadian Cookbook</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A French-Canadian Cookbook</t>
+          <t>Culturally specific cookbook from a Vermont writer. Franco American cuisine in French Canadian heritage.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Culturally specific cookbook from a Vermont writer. Franco American cuisine in French Canadian heritage.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>Asselin, E. Donald</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>C.E. Tuttle, Co.</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="F3" t="n">
         <v>1968</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/441804"&gt;441804&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/441804"&gt;441804&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
           <t>20th century; Vermont</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -791,192 +786,186 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
+      <c r="Y3" t="n">
         <v>149</v>
       </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Rutland, Vermont</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Rutland, Vermont</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
           <t>C.E. Tuttle, Co.</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>A French-Canadian Cookbook @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=WiH8pwAACAAJ&amp;amp;dq=asselin;+a+french-canadian+cookbook&amp;amp;hl=en&amp;amp;sa=X&amp;amp;ei=V1w-T9eFLsbe0QHnqPmnBw&amp;amp;ved=0CEsQ6AEwAA"&gt;A French-Canadian Cookbook @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Food;New England;Vermont</t>
+        </is>
+      </c>
       <c r="AM3" t="inlineStr">
-        <is>
-          <t>Food;New England;Vermont</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
         <is>
           <t>Cookbooks | Livres de cuisine</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>785</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Recettes et remeèdes de nos grand-meères, vallée du Haut St-Jean</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Lévesque, Aurore Nadeau</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Self-published</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="F4" t="n">
         <v>1984</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Français</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Book</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Français</t>
         </is>
       </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
+      <c r="Y4" t="n">
         <v>147</v>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Madawaska, New Bruswick</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Madawaska, New Bruswick</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
           <t>Self-published</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>9.78097E+12</t>
         </is>
       </c>
+      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>http://isbndb.com/d/book/recettes_et_remedes_de_nos_grand_meres_vallee_du_haut_st_jea.html</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;http://isbndb.com/d/book/recettes_et_remedes_de_nos_grand_meres_vallee_du_haut_st_jea.html&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>Recettes et remeèdes de nos grand-meères</t>
         </is>
       </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Death and Disaster;Folklore;Food;Madawaska ME;New Brunswick;St. John River Valley</t>
+        </is>
+      </c>
       <c r="AM4" t="inlineStr">
-        <is>
-          <t>Death and Disaster;Folklore;Food;Madawaska ME;New Brunswick;St. John River Valley</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
         <is>
           <t>Cookbooks | Livres de cuisine</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>872</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Cooking Yankee with a French Accent</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cooking Yankee with a French Accent</t>
+          <t xml:space="preserve">Cookbook with 144 pages of recipes for snacks and meals. Includes both the popular surf dishes of southern Maine and some traditional Franco American selections, among others. In her introduction, long time Ogunquit chef Monique Belisle writes, "when I retire, I'll write a cookbook. And now, I have." </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cookbook with 144 pages of recipes for snacks and meals. Includes both the popular surf dishes of southern Maine and some traditional Franco American selections, among others. In her introduction, long time Ogunquit chef Monique Belisle writes, "when I retire, I'll write a cookbook. And now, I have." </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>Belisle, Monique</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Down East Books</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="F5" t="n">
         <v>1985</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Book</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/13196749"&gt;13196749&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -987,105 +976,102 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
+      <c r="Y5" t="n">
         <v>144</v>
       </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Camden, Maine</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Camden, Maine</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
           <t>Down East Books</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>9.78089E+12</t>
         </is>
       </c>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>https://secure.downeast.com/store/home.php?cat=700;Cooking Yankee... @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="https://secure.downeast.com/store/home.php?cat=700"&gt;https://secure.downeast.com/store/home.php?cat=700&lt;/a&gt;&lt;/div&gt;;&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=M4k-AQAACAAJ"&gt;Cooking Yankee... @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/be70d6ac9107018ca4b97a55ff1f6388.jpg</t>
+        </is>
+      </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/be70d6ac9107018ca4b97a55ff1f6388.jpg</t>
+          <t>Food;New England;Ogunquit ME</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
-        <is>
-          <t>Food;New England;Ogunquit ME</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
         <is>
           <t>Cookbooks | Livres de cuisine</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>951</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Je me souviens la cuisine de la grandmeère : Treasured Recipes</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Je me souviens la cuisine de la grandmeère : Treasured Recipes</t>
+          <t xml:space="preserve">Cookbook of traditional Franco-American recipes handed down through multiple generations of family cooks. A collective production of members and contributors to the American-French Genealogical Society of Woonsocket, Rhode Island. </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cookbook of traditional Franco-American recipes handed down through multiple generations of family cooks. A collective production of members and contributors to the American-French Genealogical Society of Woonsocket, Rhode Island. </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>American French Genealogical Society</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
+      <c r="F6" t="n">
         <v>2001</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bartholomy, Roger;Bartholomy, Sylvia;Riel, Alice</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Bartholomy, Roger;Bartholomy, Sylvia;Riel, Alice</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
           <t>en</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/460758691"&gt;460758691&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/460758691"&gt;460758691&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
           <t>2001; Rhode Island</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -1095,105 +1081,102 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="n">
+      <c r="Y6" t="n">
         <v>243</v>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Pawtucket, Rhode Island</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Pawtucket, Rhode Island</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
           <t>Quintin Publications</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>http://www.afgs.org/afgscookbook.html (index of recipes available here)  http://books.google.com/books?id=MtdNGwAACAAJ&amp;dq=je+me+souviens%3B+duprey&amp;hl=en&amp;ei=meJSTJTrMYL_8AbHm9yrAw&amp;sa=X&amp;oi=book_result&amp;ct=result&amp;resnum=1&amp;ved=0CCgQ6AEwAA</t>
-        </is>
-      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.afgs.org/afgscookbook.html"&gt;http://www.afgs.org/afgscookbook.html&lt;/a&gt; (index of recipes available here) &lt;br/&gt;&lt;br/&gt; &lt;a href="http://books.google.com/books?id=MtdNGwAACAAJ&amp;amp;dq=je+me+souviens%3B+duprey&amp;amp;hl=en&amp;amp;ei=meJSTJTrMYL_8AbHm9yrAw&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CCgQ6AEwAA"&gt;http://books.google.com/books?id=MtdNGwAACAAJ&amp;amp;dq=je+me+souviens%3B+duprey&amp;amp;hl=en&amp;amp;ei=meJSTJTrMYL_8AbHm9yrAw&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CCgQ6AEwAA&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/af35f82f171ed41d621cad54b97d3ab0.jpg</t>
+        </is>
+      </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/af35f82f171ed41d621cad54b97d3ab0.jpg</t>
+          <t>Food;Rhode Island</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
-        <is>
-          <t>Food;Rhode Island</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
         <is>
           <t>Cookbooks | Livres de cuisine</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>1389</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Rien n'était gaspillé dans la cuisine de ma grand-mière : Nothing Went to Waste in Grandmother's Kitchen</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rien n'était gaspillé dans la cuisine de ma grand-mière : Nothing Went to Waste in Grandmother's Kitchen</t>
+          <t>Collection of recipes and folk remedies from the Lausier family of Grand Isle, Maine. Introduced with a brief history of the family and its kitchen habits. Illustrated in black and white photograph. Published in English and French versions. Revised edition published in 1983.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Collection of recipes and folk remedies from the Lausier family of Grand Isle, Maine. Introduced with a brief history of the family and its kitchen habits. Illustrated in black and white photograph. Published in English and French versions. Revised edition published in 1983.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>Lindsay, Betty A. Lausier</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>National Materials Development Center</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="F7" t="n">
         <v>1981</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Lindsay, John (photographs);Bergeron, Ron (photographs);Doherty, Huguette (translation);Ste-Marie, Raymond (graphics);McGrath, Tracey (typography)</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Lindsay, John (photographs);Bergeron, Ron (photographs);Doherty, Huguette (translation);Ste-Marie, Raymond (graphics);McGrath, Tracey (typography)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
           <t>en/fr</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/9759931"&gt;9759931&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/9759931"&gt;9759931&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
           <t>20th century; Grand Isle, Maine</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -1203,95 +1186,92 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="n">
+      <c r="Y7" t="n">
         <v>75</v>
       </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Durham, New Hampshire</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Durham, New Hampshire</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
           <t>National Materials Development Center</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>0911409424</t>
         </is>
       </c>
+      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>Nothing Went to Waste... @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="books.google.com/books?id=pHoUAQAAMAAJ"&gt;Nothing Went to Waste...&lt;/a&gt; @ Google Books&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/8978d54f8f7e1a9ad7d12aec22ac207e.jpg</t>
+        </is>
+      </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/8978d54f8f7e1a9ad7d12aec22ac207e.jpg</t>
+          <t>Acadians;Community: Customs and Social Life;Family;Food;Grand Isle ME</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
-        <is>
-          <t>Acadians;Community: Customs and Social Life;Family;Food;Grand Isle ME</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
         <is>
           <t>Cookbooks | Livres de cuisine</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>1462</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Treasured Family Recipes : Past and Present</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Treasured Family Recipes : Past and Present</t>
+          <t>A cookbook both traditional and modern. A collection of recipes from three generations of French Canadian and Acadian cooks. Includes an introduction by the author. Written in Madawaska, Maine, and shared with the Upper St. John Valley. Printed by the fundraising publisher Morris Press, with a portion of cookbook sales dedicated to the Edgar J. (Guy) Paradis Cancer Fund.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A cookbook both traditional and modern. A collection of recipes from three generations of French Canadian and Acadian cooks. Includes an introduction by the author. Written in Madawaska, Maine, and shared with the Upper St. John Valley. Printed by the fundraising publisher Morris Press, with a portion of cookbook sales dedicated to the Edgar J. (Guy) Paradis Cancer Fund.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t xml:space="preserve">Charette, Theresa </t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Morris Press Cookbooks</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="F8" t="n">
         <v>2005</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Book</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
@@ -1303,101 +1283,98 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="n">
+      <c r="Y8" t="n">
         <v>113</v>
       </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Kearney, Nebraska</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Kearney, Nebraska</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
           <t>Morris Press Cookbooks</t>
         </is>
       </c>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>http://www.morriscookbooks.com</t>
-        </is>
-      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.morriscookbooks.com"&gt;http://www.morriscookbooks.com&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/61c9b6f9b26966462b3b0756f83b84bf.jpg</t>
+        </is>
+      </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/61c9b6f9b26966462b3b0756f83b84bf.jpg</t>
+          <t>Family;Food;Madawaska ME;Maine;St. John River Valley</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
-        <is>
-          <t>Family;Food;Madawaska ME;Maine;St. John River Valley</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
         <is>
           <t>Cookbooks | Livres de cuisine</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>1608</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Biographie d'une ploye</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Biographie d'une ploye</t>
+          <t>Un petit historique de la ploye telle que racontée par lui-même. Une description de ses ingrédients, sa recette, comment c'est faite, et son importance pour la culture acadienne.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Un petit historique de la ploye telle que racontée par lui-même. Une description de ses ingrédients, sa recette, comment c'est faite, et son importance pour la culture acadienne.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>Soucy, Camille</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Editions Lavigne Ltée.</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="F9" t="n">
         <v>1988</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Français</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/24218575"&gt;24218575&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/24218575"&gt;24218575&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
           <t>20e siiècle, Nouveau-Brunswick</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1407,102 +1384,99 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="n">
+      <c r="Y9" t="n">
         <v>15</v>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>Edmundston, New Brunswick</t>
         </is>
       </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>0921548028</t>
         </is>
       </c>
+      <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>Biographie d'une ploye sur Google Books</t>
-        </is>
-      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=1sVINwAACAAJ&amp;amp;dq=biographie+d%27une+ploye&amp;amp;hl=en&amp;amp;ei=2SHUTYfoCIfHgAeUu_gt&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CDMQ6AEwAA"&gt;Biographie d'une ploye sur Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/b9af0fb59b9fbba356a26e5fc4f9ae2e.jpg</t>
+        </is>
+      </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/b9af0fb59b9fbba356a26e5fc4f9ae2e.jpg</t>
+          <t>Acadians;Canada;Community: Customs and Social Life;Food;New Brunswick</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
-        <is>
-          <t>Acadians;Canada;Community: Customs and Social Life;Food;New Brunswick</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
         <is>
           <t>Cookbooks | Livres de cuisine</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>1617</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>La Bonne Croûte...livre de recettes</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>La Bonne Croûte...livre de recettes</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">Une collection de recettes pour le pain, les viandes, le poisson, les ga?teaux, les tartes, et des plats d'autres aliments. Partage certains des remièdes "folk" aux divers maux, aussi qu'une recette de savon. Compilée à  partir de de recettes présentées par les membres de la communauté qui sont énumérés ici. Rédigé en anglais et en français._x000D_
 </t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Robert, Hermanita;Moore, Roseline</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Le Festival Franco-Américain, Inc.</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="F10" t="n">
         <v>1983</v>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Fagnant, Susan (illustrations);Angers, Jeanne;Baril, Simone;Barsalou, Gérard;Briket, Jeanine;Desrochers, Claire;Dupuis, Gertrude;Forbes, Ruth;Guillet, Ernest;Lapointe, Gaetane;Lapointe, Luce;Lariviière, Claire;Mercier, Jeannette Menard;Moore, Roseline Loiselle;Murray, Clarence E.;Potvin, Vivian;Robert, Aurore Labrie;Robert, Hermanie Côté;Rouleau, Claire;St. Pierre, Eugiène;Stanislas, Cécile;Thibault, Pearl;Walsh, Louise Pelletier</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Fagnant, Susan (illustrations);Angers, Jeanne;Baril, Simone;Barsalou, Gérard;Briket, Jeanine;Desrochers, Claire;Dupuis, Gertrude;Forbes, Ruth;Guillet, Ernest;Lapointe, Gaetane;Lapointe, Luce;Lariviière, Claire;Mercier, Jeannette Menard;Moore, Roseline Loiselle;Murray, Clarence E.;Potvin, Vivian;Robert, Aurore Labrie;Robert, Hermanie Côté;Rouleau, Claire;St. Pierre, Eugiène;Stanislas, Cécile;Thibault, Pearl;Walsh, Louise Pelletier</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
           <t>Bilingual/bilingue</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Book</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
         <is>
           <t>1983, Massachusetts</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
@@ -1512,97 +1486,94 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="n">
+      <c r="Y10" t="n">
         <v>134</v>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>Chicopee-Holyoke, Massachusetts</t>
         </is>
       </c>
+      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>Unknown/Inconnu</t>
-        </is>
-      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;Unknown/Inconnu&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/8ad84e16e8ba9f12b0652ae235dce546.jpg</t>
+        </is>
+      </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/8ad84e16e8ba9f12b0652ae235dce546.jpg</t>
+          <t>Chicopee MA;Community: Customs and Social Life;Food;Holyoke MA;Massachusetts</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
-        <is>
-          <t>Chicopee MA;Community: Customs and Social Life;Food;Holyoke MA;Massachusetts</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
         <is>
           <t>Cookbooks | Livres de cuisine</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>1811</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>A Jewel in the Crown of Maine : The Farrell-Michaud House, Meals and Memories</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A Jewel in the Crown of Maine : The Farrell-Michaud House, Meals and Memories</t>
+          <t>Book of recipes for meals and dishes served at the Farrell-Michaud House bed-and-breakfast in Van Buren, Maine. Begins with stories and historical descriptions of the Farrell and Michaud families, as well as of the house itself and the cultures of the northern Maine region in which it sits.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Book of recipes for meals and dishes served at the Farrell-Michaud House bed-and-breakfast in Van Buren, Maine. Begins with stories and historical descriptions of the Farrell and Michaud families, as well as of the house itself and the cultures of the northern Maine region in which it sits.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>Bouchard, Susan</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Keepsake Enterprises, Ltd.</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="F11" t="n">
         <v>1998</v>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Gupton, Dianna G. (editor);La Pointe, Pete (cover photograph)</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Gupton, Dianna G. (editor);La Pointe, Pete (cover photograph)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
           <t>English et français</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Book</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
         <is>
           <t>1800-1995, Van Buren, Maine</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -1612,20 +1583,20 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="n">
+      <c r="Y11" t="n">
         <v>101</v>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Chattanooga, Tennessee</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Chattanooga, Tennessee</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
           <t>Keepsake Enterprises, Ltd.</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
@@ -1634,75 +1605,72 @@
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/a1bea1f527a6397134aa702f8ea8bc66.jpg</t>
+        </is>
+      </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/a1bea1f527a6397134aa702f8ea8bc66.jpg</t>
+          <t>Aroostook County ME;Family;Food;Fort Kent ME;Maine;St. John River Valley;Van Buren ME</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
-        <is>
-          <t>Aroostook County ME;Family;Food;Fort Kent ME;Maine;St. John River Valley;Van Buren ME</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
         <is>
           <t>Cookbooks | Livres de cuisine</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>1812</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Reunion Families' Cookbook</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Reunion Families' Cookbook</t>
+          <t>Collection of recipes shared by families who celebrated reunions in Madawaska, Maine between 1993 and 2000. The reunion banquet being a keystone event, a book's worth of family foods were compiled from the following clans whose gatherings took place in the following order: 1993 - Theriault 1994 - Roy 1995 - Chassé 1996 - Levesque 1997 - Dubé 1998 - Nadeau 1999 - Dumont 2000 - Miville-Deschênes The recipe book is divided into chapter by year and family. Each section is introduced with a family crest and a brief genealogical description of a family name, followed by recipes alphabetized by the first name of their presenter. Original Acadian recipes are denoted by asterisk. Contains an index of all included recipes.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Collection of recipes shared by families who celebrated reunions in Madawaska, Maine between 1993 and 2000. The reunion banquet being a keystone event, a book's worth of family foods were compiled from the following clans whose gatherings took place in the following order: 1993 - Theriault 1994 - Roy 1995 - Chassé 1996 - Levesque 1997 - Dubé 1998 - Nadeau 1999 - Dumont 2000 - Miville-Deschênes The recipe book is divided into chapter by year and family. Each section is introduced with a family crest and a brief genealogical description of a family name, followed by recipes alphabetized by the first name of their presenter. Original Acadian recipes are denoted by asterisk. Contains an index of all included recipes.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>DeFarges, Rachelle Chassé</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>The Acadian Cultural Exchange of Northern Maine</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="F12" t="n">
         <v>2000</v>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>DeFarges, Bob;Deschaine, Muriel Nadeau;Myers, Lisa</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>DeFarges, Bob;Deschaine, Muriel Nadeau;Myers, Lisa</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Book</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
         <is>
           <t>1993-2000, Madawaska, Maine</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
@@ -1712,103 +1680,100 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="n">
+      <c r="Y12" t="n">
         <v>140</v>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Holden, Maine</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Holden, Maine</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
           <t>The Acadian Cultural Exchange of Northern Maine</t>
         </is>
       </c>
+      <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="n">
+      <c r="AG12" t="n">
         <v>2</v>
       </c>
+      <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/cc3cd58428cf3350e04a05f48f7cee6f.jpg</t>
+        </is>
+      </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/cc3cd58428cf3350e04a05f48f7cee6f.jpg</t>
+          <t>Acadians;Community: Customs and Social Life;Family;Food;Madawaska ME;Maine;St. John River Valley</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
-        <is>
-          <t>Acadians;Community: Customs and Social Life;Family;Food;Madawaska ME;Maine;St. John River Valley</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
         <is>
           <t>Cookbooks | Livres de cuisine</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>1813</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Reunion Families' Favorite Recipes</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Reunion Families' Favorite Recipes</t>
+          <t>Collection of recipes shared by families who celebrated reunions in Madawaska, Maine between 1980 and 1992. The reunion banquet being a keystone event, the Madawaska Historical Society collected a book's worth of family foods from the following clans whose gatherings took place in the following order: 1980 - Daigle 1981 - Cyr 1982 - Hébert 1983 - Dufour 1984 - Thibodeau 1985 - Ayotte, Duperré, Fournier, Mercure, Potier, Sanfaçon 1986 - Pelletier 1987 - Plourde 1988 - Ouellette 1989 - Paradis 1990 - Bouchard 1991 - Sirois 1992 - Côté The recipe book is divided into chapter by year and family. Each section is introduced with a family crest, a brief genealogical description of a family name, and a list of the recipes that follow alphabetized by the first name of their presenter. Original Acadian recipes are denoted by asterisk. Contains an index of all included recipes.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Collection of recipes shared by families who celebrated reunions in Madawaska, Maine between 1980 and 1992. The reunion banquet being a keystone event, the Madawaska Historical Society collected a book's worth of family foods from the following clans whose gatherings took place in the following order: 1980 - Daigle 1981 - Cyr 1982 - Hébert 1983 - Dufour 1984 - Thibodeau 1985 - Ayotte, Duperré, Fournier, Mercure, Potier, Sanfaçon 1986 - Pelletier 1987 - Plourde 1988 - Ouellette 1989 - Paradis 1990 - Bouchard 1991 - Sirois 1992 - Côté The recipe book is divided into chapter by year and family. Each section is introduced with a family crest, a brief genealogical description of a family name, and a list of the recipes that follow alphabetized by the first name of their presenter. Original Acadian recipes are denoted by asterisk. Contains an index of all included recipes.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>Chassé, Géraldine Pelletier</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Madawaska Historical Society</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="F13" t="n">
         <v>1992</v>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Chasse, David;DeFarges, Rachelle;Dubay, Guy;Lagassé, Angela Higgins;Lavoie, Travis;Sirois, Sylvie</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Chasse, David;DeFarges, Rachelle;Dubay, Guy;Lagassé, Angela Higgins;Lavoie, Travis;Sirois, Sylvie</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/27163203"&gt;27163203&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/27163203"&gt;27163203&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
           <t>1980-1992, Madawaska, Maine</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -1818,20 +1783,20 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
+      <c r="Y13" t="n">
         <v>156</v>
       </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Madawaska, Maine</t>
+        </is>
+      </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Madawaska, Maine</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
           <t>Madawaska Historical Society</t>
         </is>
       </c>
+      <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
@@ -1840,71 +1805,68 @@
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/27ab727e71fb4f79f2c4d7e35cf4bb1f.jpg</t>
+        </is>
+      </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/27ab727e71fb4f79f2c4d7e35cf4bb1f.jpg</t>
+          <t>Acadians;Community: Customs and Social Life;Family;Food;Madawaska ME;Maine;St. John River Valley</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
-        <is>
-          <t>Acadians;Community: Customs and Social Life;Family;Food;Madawaska ME;Maine;St. John River Valley</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
         <is>
           <t>Cookbooks | Livres de cuisine</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>1817</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Saintly Delights : St. Augustine Parish, Augusta, Maine</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Saintly Delights : St. Augustine Parish, Augusta, Maine</t>
+          <t>Collection of recipes gathered from the families and parishioners of St. Augustine Roman Catholic Parish in Augusta, Maine. Divided into section by food type, all recipes are printed with the name of their contributor(s). Book contains printed advertisements from local businesses and an index of the included recipes, ordered by page number.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Collection of recipes gathered from the families and parishioners of St. Augustine Roman Catholic Parish in Augusta, Maine. Divided into section by food type, all recipes are printed with the name of their contributor(s). Book contains printed advertisements from local businesses and an index of the included recipes, ordered by page number.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
           <t>Clement, Julie;Friel, Diane;Martin, Julie;Pare, Jane</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Fundcraft Publishing, Inc.</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="F14" t="n">
         <v>1987</v>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>Book</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
         <is>
           <t>1987, Augusta, Maine</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
@@ -1914,44 +1876,43 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
+      <c r="Y14" t="n">
         <v>80</v>
       </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Collierville, TN</t>
+        </is>
+      </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Collierville, TN</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
           <t>Fundcraft Publishing, Inc.</t>
         </is>
       </c>
+      <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>http://stmichaelmaine.org/</t>
-        </is>
-      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://stmichaelmaine.org/"&gt;http://stmichaelmaine.org/&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/579a344c8af6547d7a72bd25126699bd.jpg</t>
+        </is>
+      </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/579a344c8af6547d7a72bd25126699bd.jpg</t>
+          <t>Augusta ME;Community: Customs and Social Life;Food;Religion</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
-        <is>
-          <t>Augusta ME;Community: Customs and Social Life;Food;Religion</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
         <is>
           <t>Cookbooks | Livres de cuisine</t>
         </is>
